--- a/Component_property_table.xlsx
+++ b/Component_property_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c7701233\Desktop\Cantabria_Optical_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A9EA0-169B-4704-823F-C3BFE7845668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350230F-BE54-4C78-83C5-C649FDDB4A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9765" yWindow="465" windowWidth="19035" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
